--- a/biology/Botanique/Système_de_Kubitzki/Système_de_Kubitzki.xlsx
+++ b/biology/Botanique/Système_de_Kubitzki/Système_de_Kubitzki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_Kubitzki</t>
+          <t>Système_de_Kubitzki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système de Kubitzki est un  système de classification botanique conçu par le botaniste allemand, Klaus Kubitzki. C'est le produit d'une étude en cours des plantes vasculaires, intitulée The Families and Genera of Vascular Plants, qui comprenait 13 volumes en 2015[1].
-Cette revue, sous la forme d'une encyclopédie, est importante car elle constitue un traitement exhaustif, multivolume, des plantes vasculaires, avec des clés de détermination et la description de toutes les familles et tous les genres, la plupart du temps par des spécialistes de ces groupes. Le système de Kubitzki a servi de base pour la classification utilisée dans l'ouvrage Mabberley's Plant-Book, sorte de dictionnaire des plantes vasculaires[2]. David John Mabberley déclare, dans son introduction à la page xi de l'édition de 2008, que le système de Kubitzki « reste la norme à laquelle on compare la littérature existante ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système de Kubitzki est un  système de classification botanique conçu par le botaniste allemand, Klaus Kubitzki. C'est le produit d'une étude en cours des plantes vasculaires, intitulée The Families and Genera of Vascular Plants, qui comprenait 13 volumes en 2015.
+Cette revue, sous la forme d'une encyclopédie, est importante car elle constitue un traitement exhaustif, multivolume, des plantes vasculaires, avec des clés de détermination et la description de toutes les familles et tous les genres, la plupart du temps par des spécialistes de ces groupes. Le système de Kubitzki a servi de base pour la classification utilisée dans l'ouvrage Mabberley's Plant-Book, sorte de dictionnaire des plantes vasculaires. David John Mabberley déclare, dans son introduction à la page xi de l'édition de 2008, que le système de Kubitzki « reste la norme à laquelle on compare la littérature existante ».
 Par les arrangements concernant les ordres et les familles, le système de classification adopté dans les volumes initiaux sur les Angiospermes ressemble étroitement à la classification de Dahlgren pour les monocotylédones et à celle de Cronquist pour les dicotylédones, mais les volumes ultérieurs ont été influencés par les études récentes de phylogénétique moléculaire.
-Le premier volume de la série (Ptéridophytes et Gymnospermes), qui couvre les  Lycophytes, Monilophytes et Gymnospermes, a été publié en 1990. En 2010, neuf volumes étaient publiés, couvrant 39 des 59 ordres de plantes à fleurs reconnus par la classification APG III. L'ordre des  Saxifragales est couvert, à l'exception du genre Medusandra, transféré des Malpighiales en 2009[3]. Le volume 10 (2011) couvre la famille des Myrtaceae et les ordres des Cucurbitales et Sapindales. Le volume 11 a été publié en 2014, et les volumes suivants en 2015. Les volumes 2 et 5 à 7 traitent des Dicotylédones, tandis que les volumes 3, 4 et 13 traitent des Monocotylédones. Les volumes 8 à 12 traitent des Eudicotylédones.
-Parce que c'est le résultat d'un travail en cours, le système de Kubitzki est incomplet pour les groupes de plantes qui n'ont pas encore été couverts et ceux qui ont été complètement couverts n'ont pas été révisés à la lumière des connaissances acquises ultérieurement. Depuis la publication du premier volume en 1990, on a beaucoup appris sur la systématique botanique, principalement par des analyses phylogénétiques de séquences d'ADN. La classification des Fougères a été complètement revue dans cette période[4],[5]. En outre certaines familles de Gymnospermes ont été révisées[6],[7].
+Le premier volume de la série (Ptéridophytes et Gymnospermes), qui couvre les  Lycophytes, Monilophytes et Gymnospermes, a été publié en 1990. En 2010, neuf volumes étaient publiés, couvrant 39 des 59 ordres de plantes à fleurs reconnus par la classification APG III. L'ordre des  Saxifragales est couvert, à l'exception du genre Medusandra, transféré des Malpighiales en 2009. Le volume 10 (2011) couvre la famille des Myrtaceae et les ordres des Cucurbitales et Sapindales. Le volume 11 a été publié en 2014, et les volumes suivants en 2015. Les volumes 2 et 5 à 7 traitent des Dicotylédones, tandis que les volumes 3, 4 et 13 traitent des Monocotylédones. Les volumes 8 à 12 traitent des Eudicotylédones.
+Parce que c'est le résultat d'un travail en cours, le système de Kubitzki est incomplet pour les groupes de plantes qui n'ont pas encore été couverts et ceux qui ont été complètement couverts n'ont pas été révisés à la lumière des connaissances acquises ultérieurement. Depuis la publication du premier volume en 1990, on a beaucoup appris sur la systématique botanique, principalement par des analyses phylogénétiques de séquences d'ADN. La classification des Fougères a été complètement revue dans cette période,. En outre certaines familles de Gymnospermes ont été révisées,.
 Pour les plantes à fleurs, les derniers volumes du système de Kubitzki suivent l’Angiosperm Phylogeny Group dont la dernière révision date de 2009 (classification APG III), sauf pour la reconnaissance de familles ségrégées plus petites. (la liste complète de l'ensemble des volumes est indiquée dans l'article sur Klaus Kubitzki).
 </t>
         </is>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_Kubitzki</t>
+          <t>Système_de_Kubitzki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,16 +530,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Résumé
-Divisions
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Divisions
 Pteridophyta
 Pinophyta
 subdivision des Coniferophytina
 subdivision des Cycadophytina
 Magnoliophyta
 Classe des Monocotylédones
-Classe des  Dicotylédones
-Pteridophyta
+Classe des  Dicotylédones</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Système_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pteridophyta</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1. divisio Pteridophyta
 1. classis Psilotatae
 Psilotaceae
@@ -571,7 +623,43 @@
 Schizaeaceae
 Thelypteridaceae
 Vittariaceae
-Pinophyta
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Système_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pinophyta</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2. divisio Pinophyta ou Gymnospermae
 1. subdivisio Coniferophytina
 1. classis Ginkgoatae
@@ -600,11 +688,85 @@
 Ephedraceae
 Welwitschiaceae
 Gnetaceae
-Magnoliophyta
-3. divisio Magnoliophyta ou Angiospermae
-subdivisio Magnoliophytina
-Monocotyledoneae
-1. classis Monocotyledoneae ou Liliopsida [complète][8]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Système_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Magnoliophyta</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3. divisio Magnoliophyta ou Angiospermae
+subdivisio Magnoliophytina</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Système_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Magnoliophyta</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Monocotyledoneae</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1. classis Monocotyledoneae ou Liliopsida [complète]
 4. Superordres
 Acoranae
 Alismatanae
@@ -706,7 +868,7 @@
 Dasypogonaceae
 3. Ordre des Bromeliales
 Bromeliaceae
-?Rapateaceae[9]
+?Rapateaceae
 4. Ordre des Commelinales
 Commelinaceae
 Pontederiaceae
@@ -726,7 +888,7 @@
 Zingiberaceae
 Cannaceae
 Marantaceae
-?Hanguanaceae[10]
+?Hanguanaceae
 7. Ordre des Typhales
 Typhaceae
 8. Ordre des Juncales
@@ -743,7 +905,47 @@
 Poaceae
 incertae sedis in monocots
 Hydatellaceae
-Dicotyledoneae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Système_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_de_Kubitzki</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Magnoliophyta</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dicotyledoneae</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2. classis Dicotyledoneae ou Magnoliopsida [incomplète]
 1. subclassis Magnoliidae
 1. superordre des Magnolianae (Magnoliidées inférieures)
@@ -796,7 +998,6 @@
 ?Ceratophyllaceae
 4. superordre des Caryophyllanae
 Ordre des Caryophyllales (y inclus : Centrospermae Eichler)
-[11]
 Nepenthaceae *
 Droseraceae *
 Drosophyllaceae *
@@ -898,7 +1099,7 @@
 Brunelliaceae
 Cunoniaceae
 Elaeocarpaceae
-Ordre des Rosales (#)[12]
+Ordre des Rosales (#)
 Rosaceae (y compris Guamatela)
 Dirachmaceae
 Rhamnaceae
@@ -906,7 +1107,7 @@
 Elaeagnaceae
 Ulmaceae #
 Moraceae #
-Cecropiaceae #[13]
+Cecropiaceae #
 Urticaceae #
 Ordre des Cornales
 Hydrostachyaceae
@@ -993,29 +1194,29 @@
 Sabiaceae
 Ordre des Proteales
 Proteaceae
-Platanaceae[14]
-Nelumbonales[15]
+Platanaceae
+Nelumbonales
 Ordre des Buxales
 Buxaceae
 Didymelaceae
 Ordre des Gunnerales
 Gunneraceae
-Myrothamnaceae[16]
+Myrothamnaceae
 Rattachés à aucun ordre
 Dilleniaceae
 Ordre des Saxifragales
-Altingiaceae[17]
+Altingiaceae
 Aphanopetalaceae
-Cercidiphyllaceae[16]
+Cercidiphyllaceae
 Crassulaceae
 Daphniphyllaceae
 Grossulariaceae
 Haloragaceae
-Hamamelidaceae[18]
+Hamamelidaceae
 Iteaceae
 Paeoniaceae
 Penthoraceae
-Peridiscaceae[19]
+Peridiscaceae
 Pterostemonaceae
 Saxifragaceae
 Tetracarpaeaceae
@@ -1031,7 +1232,7 @@
 Geraniaceae
 Ledocarpaceae
 Melianthaceae
-Ordre des Crossosomatales[20]
+Ordre des Crossosomatales
 Aphloiaceae
 Crossosomataceae
 Geissolomataceae
